--- a/GetDisplayInfo/meeting room.xlsx
+++ b/GetDisplayInfo/meeting room.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>Model</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>Thompson meeting room</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>Pozuelo</t>
   </si>
 </sst>
 </file>
@@ -414,20 +429,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" customWidth="1"/>
-    <col min="3" max="3" width="24.08984375" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,8 +453,14 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -448,8 +470,14 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -459,8 +487,14 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -470,8 +504,14 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -481,8 +521,14 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -492,8 +538,14 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -503,8 +555,14 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -514,8 +572,14 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -525,8 +589,14 @@
       <c r="C9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -536,8 +606,14 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -547,8 +623,14 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -558,8 +640,15 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>